--- a/aichan/505964782611952654_2021-03-25_19-21-46.xlsx
+++ b/aichan/505964782611952654_2021-03-25_19-21-46.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -540,10 +556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-05-17 22:48:36</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44333.95041666667</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -605,10 +619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-05-11 19:48:24</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44327.82527777777</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-05-09 09:28:14</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44325.39460648148</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -752,10 +762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-04-29 16:38:05</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44315.69311342593</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -823,10 +831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-04-24 20:44:26</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44310.86418981481</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -907,10 +913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-04-24 11:37:25</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44310.48431712963</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -975,10 +979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-04-22 10:55:06</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44308.45493055556</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1051,10 +1053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-04-21 11:09:23</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44307.46484953703</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1127,10 +1127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-04-20 12:05:17</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44306.50366898148</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1203,10 +1201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-04-19 22:51:52</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44305.95268518518</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1280,10 +1276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-04-19 00:27:09</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44305.01885416666</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1364,10 +1358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-04-18 22:43:40</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44304.94699074074</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1436,10 +1428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-04-16 07:25:42</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44302.30951388889</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1515,10 +1505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-04-16 02:15:48</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44302.09430555555</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1614,10 +1602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-04-12 00:57:01</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44298.03959490741</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1696,10 +1682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-04-08 07:40:35</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44294.31984953704</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1774,10 +1758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-04-07 00:29:44</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44293.02064814815</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1842,10 +1824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-04-06 12:19:07</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44292.51327546296</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1922,10 +1902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-04-05 12:02:00</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44291.50138888889</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1989,10 +1967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-04-03 21:32:55</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44289.8978587963</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2061,10 +2037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-04-02 13:16:20</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44288.55300925926</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2128,10 +2102,8 @@
           <t>4313319567</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-28 00:49:12</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44283.03416666666</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2207,10 +2179,8 @@
           <t>4326260327</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-28 00:18:09</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44283.01260416667</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2275,10 +2245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-26 16:56:54</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44281.70618055556</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2354,10 +2322,8 @@
           <t>4313349959</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:51:17</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44281.61894675926</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2425,10 +2391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:50:05</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44281.61811342592</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2496,10 +2460,8 @@
           <t>4318495189</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:50:03</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44281.61809027778</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2567,10 +2529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:41:39</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44281.52892361111</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2638,10 +2598,8 @@
           <t>4317912525</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-26 12:17:59</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44281.51248842593</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2713,10 +2671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-26 01:48:12</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44281.07513888889</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2788,10 +2744,8 @@
           <t>4313624054</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:57:49</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44280.95681712963</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2860,10 +2814,8 @@
           <t>4314867945</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:56:02</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44280.9555787037</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2940,10 +2892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:46:29</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44280.94894675926</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3011,10 +2961,8 @@
           <t>4314867945</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:41:53</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44280.94575231482</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3082,10 +3030,8 @@
           <t>4314867945</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:33:54</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44280.94020833333</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
@@ -3153,10 +3099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:17:46</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44280.92900462963</v>
       </c>
       <c r="I37" t="n">
         <v>2</v>
@@ -3232,10 +3176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-25 20:48:47</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44280.86721064815</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3303,10 +3245,8 @@
           <t>4314569963</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-25 20:25:03</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44280.85072916667</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3378,10 +3318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:54:38</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44280.78793981481</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3445,10 +3383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:41:38</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44280.77891203704</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3521,10 +3457,8 @@
           <t>4314569963</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:39:50</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44280.77766203704</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3592,10 +3526,8 @@
           <t>4314867945</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:32:37</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44280.77265046296</v>
       </c>
       <c r="I43" t="n">
         <v>5</v>
@@ -3667,10 +3599,8 @@
           <t>4314852604</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:29:05</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44280.77019675926</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3739,10 +3669,8 @@
           <t>4314851261</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:28:14</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44280.76960648148</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3810,10 +3738,8 @@
           <t>4314569963</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:53:49</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44280.74570601852</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3885,10 +3811,8 @@
           <t>4314678002</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:49:39</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44280.7428125</v>
       </c>
       <c r="I47" t="n">
         <v>13</v>
@@ -3952,10 +3876,8 @@
           <t>4314602891</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:31:20</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44280.7300925926</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4031,10 +3953,8 @@
           <t>4314593201</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:30:59</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44280.72984953703</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4110,10 +4030,8 @@
           <t>4314576982</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:26:18</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44280.72659722222</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4177,10 +4095,8 @@
           <t>4314569963</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:24:46</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44280.72553240741</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4256,10 +4172,8 @@
           <t>4314517627</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:10:55</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44280.71591435185</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4331,10 +4245,8 @@
           <t>4314489894</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:04:45</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44280.71163194445</v>
       </c>
       <c r="I53" t="n">
         <v>5</v>
@@ -4402,10 +4314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:54:40</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44280.70462962963</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4473,10 +4383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:49:12</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44280.65916666666</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4548,10 +4456,8 @@
           <t>4314202799</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:35:50</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44280.64988425926</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4623,10 +4529,8 @@
           <t>4314129858</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:12:55</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44280.63396990741</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4702,10 +4606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:05:03</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44280.62850694444</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4781,10 +4683,8 @@
           <t>4314086078</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:53:56</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44280.62078703703</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4848,10 +4748,8 @@
           <t>4314065906</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:49:00</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44280.61736111111</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4919,10 +4817,8 @@
           <t>4314065906</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:47:07</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44280.61605324074</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4986,10 +4882,8 @@
           <t>4313951186</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:42:16</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44280.61268518519</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5057,10 +4951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:32:51</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44280.60614583334</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5136,10 +5028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:30:14</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44280.6043287037</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5207,10 +5097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:27:59</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44280.6027662037</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5286,10 +5174,8 @@
           <t>4313980688</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:16:51</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44280.59503472222</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5365,10 +5251,8 @@
           <t>4313980101</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:16:16</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44280.59462962963</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5444,10 +5328,8 @@
           <t>4313951186</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:07:06</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44280.58826388889</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5511,10 +5393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:58:54</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44280.58256944444</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5582,10 +5462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:58:04</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44280.58199074074</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5649,10 +5527,8 @@
           <t>4313361107</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:49:41</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44280.57616898148</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5724,10 +5600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:44:09</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44280.57232638889</v>
       </c>
       <c r="I72" t="n">
         <v>4</v>
@@ -5803,10 +5677,8 @@
           <t>4313361107</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:39:44</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44280.56925925926</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5874,10 +5746,8 @@
           <t>4313862634</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:39:07</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44280.56883101852</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5941,10 +5811,8 @@
           <t>4313832490</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:30:08</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44280.56259259259</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6008,10 +5876,8 @@
           <t>4313831717</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:29:29</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44280.56214120371</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6075,10 +5941,8 @@
           <t>4313810510</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:22:42</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44280.55743055556</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6154,10 +6018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:20:24</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44280.55583333333</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6225,10 +6087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:18:37</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44280.55459490741</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6297,10 +6157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:16:42</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44280.55326388889</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6376,10 +6234,8 @@
           <t>4313781159</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:15:12</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44280.55222222222</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6455,10 +6311,8 @@
           <t>4313767326</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:12:16</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44280.55018518519</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6531,10 +6385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:10:31</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44280.54896990741</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6610,10 +6462,8 @@
           <t>4313313641</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:10:00</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44280.54861111111</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6677,10 +6527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:09:39</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44280.54836805556</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6744,10 +6592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:08:31</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44280.54758101852</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6815,10 +6661,8 @@
           <t>4313752075</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:08:19</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44280.54744212963</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6882,10 +6726,8 @@
           <t>4313737767</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:05:06</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44280.54520833334</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6961,10 +6803,8 @@
           <t>4313725237</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:01:49</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44280.54292824074</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7032,10 +6872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:00:56</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44280.54231481482</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7103,10 +6941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:00:05</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44280.54172453703</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7170,10 +7006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:57:47</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44280.54012731482</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7249,10 +7083,8 @@
           <t>4313433756</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:57:25</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44280.53987268519</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7320,10 +7152,8 @@
           <t>4313689425</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:55:44</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44280.53870370371</v>
       </c>
       <c r="I94" t="n">
         <v>6</v>
@@ -7395,10 +7225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:51:47</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44280.53596064815</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7466,10 +7294,8 @@
           <t>4313680095</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:51:41</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44280.5358912037</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7545,10 +7371,8 @@
           <t>4313433756</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:50:38</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44280.53516203703</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7616,10 +7440,8 @@
           <t>4313670735</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:49:57</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44280.5346875</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7689,10 +7511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:49:32</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44280.53439814815</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7760,10 +7580,8 @@
           <t>4313433756</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:41:29</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44280.52880787037</v>
       </c>
       <c r="I100" t="n">
         <v>3</v>
@@ -7839,10 +7657,8 @@
           <t>4313624054</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:41:21</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44280.52871527777</v>
       </c>
       <c r="I101" t="n">
         <v>5</v>
@@ -7914,10 +7730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:38:37</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44280.52681712963</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7989,10 +7803,8 @@
           <t>4313605678</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:36:01</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44280.52501157407</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8064,10 +7876,8 @@
           <t>4313452434</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:35:27</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44280.52461805556</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8139,10 +7949,8 @@
           <t>4313574236</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:29:48</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44280.52069444444</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8206,10 +8014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:29:32</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44280.52050925926</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8273,10 +8079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:28:35</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44280.51984953704</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8348,10 +8152,8 @@
           <t>4313537800</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:21:54</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44280.51520833333</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8420,10 +8222,8 @@
           <t>4313532951</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:21:23</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44280.51484953704</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8487,10 +8287,8 @@
           <t>4313536346</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:20:56</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44280.51453703704</v>
       </c>
       <c r="I110" t="n">
         <v>2</v>
@@ -8566,10 +8364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:20:30</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44280.51423611111</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8641,10 +8437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:17:00</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44280.51180555556</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8712,10 +8506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:13:30</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44280.509375</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8787,10 +8579,8 @@
           <t>4313415633</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:09:41</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44280.50672453704</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8858,10 +8648,8 @@
           <t>4313479626</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:09:30</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44280.50659722222</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8933,10 +8721,8 @@
           <t>4313474544</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:09:13</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44280.50640046296</v>
       </c>
       <c r="I116" t="n">
         <v>11</v>
@@ -9000,10 +8786,8 @@
           <t>4313415633</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:09:07</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44280.50633101852</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9079,10 +8863,8 @@
           <t>4313393546</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:08:37</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44280.5059837963</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9161,10 +8943,8 @@
           <t>4313415633</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:06:56</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44280.50481481481</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9232,10 +9012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:05:44</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44280.50398148148</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9303,10 +9081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:05:38</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44280.50391203703</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9378,10 +9154,8 @@
           <t>4313459325</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:05:32</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44280.5038425926</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9453,10 +9227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:05:01</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44280.5034837963</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9524,10 +9296,8 @@
           <t>4313393546</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:04:18</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44280.50298611111</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9591,10 +9361,8 @@
           <t>4313338392</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:02:38</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44280.5018287037</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9662,10 +9430,8 @@
           <t>4313453263</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:02:16</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44280.50157407407</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9733,10 +9499,8 @@
           <t>4313444031</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:01:53</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44280.50130787037</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9808,10 +9572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:01:50</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44280.50127314815</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9875,10 +9637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:01:15</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44280.50086805555</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9951,10 +9711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:00:08</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44280.50009259259</v>
       </c>
       <c r="I130" t="n">
         <v>2</v>
@@ -10030,10 +9788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:59:01</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44280.49931712963</v>
       </c>
       <c r="I131" t="n">
         <v>3</v>
@@ -10105,10 +9861,8 @@
           <t>4313434598</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:58:44</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44280.49912037037</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -10172,10 +9926,8 @@
           <t>4313433756</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:58:06</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44280.49868055555</v>
       </c>
       <c r="I133" t="n">
         <v>7</v>
@@ -10247,10 +9999,8 @@
           <t>4313432982</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:27</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44280.49822916667</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10326,10 +10076,8 @@
           <t>4313415633</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:15</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44280.49809027778</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10405,10 +10153,8 @@
           <t>4313415633</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:03</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44280.49795138889</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10484,10 +10230,8 @@
           <t>4313431835</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:56:34</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44280.49761574074</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10560,10 +10304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:56:13</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44280.49737268518</v>
       </c>
       <c r="I138" t="n">
         <v>49</v>
@@ -10636,10 +10378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:56:10</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44280.49733796297</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10707,10 +10447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:55:38</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44280.49696759259</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10786,10 +10524,8 @@
           <t>4313393546</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:55:30</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44280.496875</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10868,10 +10604,8 @@
           <t>4313423377</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:55:00</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44280.49652777778</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10951,10 +10685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:54:54</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44280.49645833333</v>
       </c>
       <c r="I143" t="n">
         <v>112</v>
@@ -11026,10 +10758,8 @@
           <t>4313414329</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:54:36</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44280.49625</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11097,10 +10827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:54:32</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44280.4962037037</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11176,10 +10904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:53:53</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44280.49575231481</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11239,10 +10965,8 @@
           <t>4313421676</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:53:39</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44280.49559027778</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11306,10 +11030,8 @@
           <t>4313421424</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:53:27</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44280.49545138889</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11381,10 +11103,8 @@
           <t>4313420072</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:52:21</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44280.4946875</v>
       </c>
       <c r="I149" t="n">
         <v>13</v>
@@ -11460,10 +11180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:51:42</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44280.49423611111</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11539,10 +11257,8 @@
           <t>4313415633</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:51:36</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44280.49416666666</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11610,10 +11326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:51:15</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44280.49392361111</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11681,10 +11395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:51:14</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44280.49391203704</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11752,10 +11464,8 @@
           <t>4313408132</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:50:46</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44280.49358796296</v>
       </c>
       <c r="I154" t="n">
         <v>4</v>
@@ -11823,10 +11533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:50:43</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44280.49355324074</v>
       </c>
       <c r="I155" t="n">
         <v>6</v>
@@ -11890,10 +11598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:50:40</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44280.49351851852</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11969,10 +11675,8 @@
           <t>4313404480</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:50:40</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44280.49351851852</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12044,10 +11748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:50:32</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44280.49342592592</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -12115,10 +11817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:50:14</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44280.49321759259</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12194,10 +11894,8 @@
           <t>4313403682</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:50:00</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44280.49305555555</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12273,10 +11971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:49:23</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44280.49262731482</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12344,10 +12040,8 @@
           <t>4313406375</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:49:20</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44280.49259259259</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12411,10 +12105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:49:12</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44280.4925</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12482,10 +12174,8 @@
           <t>4313397383</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:48:59</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44280.49234953704</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12549,10 +12239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:48:46</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44280.49219907408</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12620,10 +12308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:48:20</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44280.49189814815</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12691,10 +12377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:48:19</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44280.49188657408</v>
       </c>
       <c r="I167" t="n">
         <v>12</v>
@@ -12762,10 +12446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:48:15</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44280.49184027778</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12833,10 +12515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:48:06</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44280.49173611111</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12908,10 +12588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:48:05</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44280.49172453704</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12979,10 +12657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:47:45</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44280.49149305555</v>
       </c>
       <c r="I171" t="n">
         <v>2</v>
@@ -13046,10 +12722,8 @@
           <t>4313338392</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:47:43</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44280.49146990741</v>
       </c>
       <c r="I172" t="n">
         <v>3</v>
@@ -13125,10 +12799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:47:16</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44280.49115740741</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13192,10 +12864,8 @@
           <t>4313393546</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:47:03</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44280.49100694444</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13259,10 +12929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:46:59</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44280.49096064815</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13330,10 +12998,8 @@
           <t>4313389648</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:46:49</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44280.49084490741</v>
       </c>
       <c r="I176" t="n">
         <v>5</v>
@@ -13401,10 +13067,8 @@
           <t>4313392868</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:46:31</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44280.49063657408</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13476,10 +13140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:46:06</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44280.49034722222</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13555,10 +13217,8 @@
           <t>4313383669</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:45:56</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44280.49023148148</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -13622,10 +13282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:45:55</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44280.49021990741</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13689,10 +13347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:45:55</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44280.49021990741</v>
       </c>
       <c r="I181" t="n">
         <v>2</v>
@@ -13764,10 +13420,8 @@
           <t>4313361107</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:45:43</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44280.49008101852</v>
       </c>
       <c r="I182" t="n">
         <v>6</v>
@@ -13839,10 +13493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:45:40</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44280.4900462963</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13911,10 +13563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:45:34</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44280.48997685185</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13990,10 +13640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:45:19</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44280.48980324074</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14065,10 +13713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:44:30</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44280.48923611111</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14136,10 +13782,8 @@
           <t>4313379695</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:43:55</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44280.48883101852</v>
       </c>
       <c r="I187" t="n">
         <v>3</v>
@@ -14207,10 +13851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:43:52</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44280.4887962963</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14286,10 +13928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:43:37</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44280.48862268519</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14353,10 +13993,8 @@
           <t>4313385618</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:43:29</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44280.4885300926</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14432,10 +14070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:43:19</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44280.48841435185</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14507,10 +14143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:43:19</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44280.48841435185</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14586,10 +14220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:43:19</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44280.48841435185</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14661,10 +14293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:43:12</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44280.48833333333</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14732,10 +14362,8 @@
           <t>4313349959</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:43:01</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44280.48820601852</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14803,10 +14431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:42:51</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44280.48809027778</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14882,10 +14508,8 @@
           <t>4313377990</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:42:31</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44280.4878587963</v>
       </c>
       <c r="I197" t="n">
         <v>2</v>
@@ -14957,10 +14581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:42:02</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44280.48752314815</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15024,10 +14646,8 @@
           <t>4313368948</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:41:53</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44280.48741898148</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15104,10 +14724,8 @@
           <t>4313376938</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:41:38</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44280.48724537037</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15179,10 +14797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:41:30</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44280.48715277778</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15254,10 +14870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:41:20</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44280.48703703703</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15329,10 +14943,8 @@
           <t>4313372809</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:41:04</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44280.48685185185</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15400,10 +15012,8 @@
           <t>4313372715</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:41:00</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44280.48680555556</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15471,10 +15081,8 @@
           <t>4313361107</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:40:18</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44280.48631944445</v>
       </c>
       <c r="I205" t="n">
         <v>2</v>
@@ -15550,10 +15158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:40:01</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44280.48612268519</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15621,10 +15227,8 @@
           <t>4313364930</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:39:54</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44280.48604166666</v>
       </c>
       <c r="I207" t="n">
         <v>3</v>
@@ -15696,10 +15300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:39:53</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44280.48603009259</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15767,10 +15369,8 @@
           <t>4313349959</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:39:40</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44280.48587962963</v>
       </c>
       <c r="I209" t="n">
         <v>15</v>
@@ -15843,10 +15443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:39:33</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44280.48579861111</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15910,10 +15508,8 @@
           <t>4313319567</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:39:24</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44280.48569444445</v>
       </c>
       <c r="I211" t="n">
         <v>2</v>
@@ -15985,10 +15581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:39:23</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44280.48568287037</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16056,10 +15650,8 @@
           <t>4313370578</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:39:12</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44280.48555555556</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16131,10 +15723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:38:30</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44280.48506944445</v>
       </c>
       <c r="I214" t="n">
         <v>26</v>
@@ -16211,10 +15801,8 @@
           <t>4313349959</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:37:59</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44280.48471064815</v>
       </c>
       <c r="I215" t="n">
         <v>50</v>
@@ -16290,10 +15878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:37:49</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44280.48459490741</v>
       </c>
       <c r="I216" t="n">
         <v>3</v>
@@ -16369,10 +15955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:37:30</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44280.484375</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16433,10 +16017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:37:25</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44280.48431712963</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16500,10 +16082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:37:23</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44280.48429398148</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16579,10 +16159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:37:21</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44280.48427083333</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16654,10 +16232,8 @@
           <t>4313353286</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:37:09</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44280.48413194445</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16721,10 +16297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:36:41</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44280.48380787037</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16803,10 +16377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:36:39</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44280.48378472222</v>
       </c>
       <c r="I223" t="n">
         <v>77</v>
@@ -16874,10 +16446,8 @@
           <t>4313361107</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:36:39</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44280.48378472222</v>
       </c>
       <c r="I224" t="n">
         <v>3</v>
@@ -16945,10 +16515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:36:22</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44280.48358796296</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -17012,10 +16580,8 @@
           <t>4313352362</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:36:20</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44280.48356481481</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17079,10 +16645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:36:14</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44280.48349537037</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17146,10 +16710,8 @@
           <t>4313349959</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:35:39</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44280.48309027778</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17221,10 +16783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:35:23</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44280.48290509259</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17296,10 +16856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:35:21</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44280.48288194444</v>
       </c>
       <c r="I230" t="n">
         <v>9</v>
@@ -17371,10 +16929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:35:02</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44280.48266203704</v>
       </c>
       <c r="I231" t="n">
         <v>9</v>
@@ -17450,10 +17006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:34:59</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44280.48262731481</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17513,10 +17067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:34:47</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44280.48248842593</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17584,10 +17136,8 @@
           <t>4313348181</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:33:59</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44280.48193287037</v>
       </c>
       <c r="I234" t="n">
         <v>2</v>
@@ -17651,10 +17201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:33:55</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44280.48188657407</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17730,10 +17278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:33:37</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44280.48167824074</v>
       </c>
       <c r="I236" t="n">
         <v>14</v>
@@ -17801,10 +17347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:33:36</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44280.48166666667</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17872,10 +17416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:33:24</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44280.48152777777</v>
       </c>
       <c r="I238" t="n">
         <v>564</v>
@@ -17951,10 +17493,8 @@
           <t>4313343872</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:33:20</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44280.48148148148</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -18028,10 +17568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:33:05</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44280.48130787037</v>
       </c>
       <c r="I240" t="n">
         <v>372</v>
@@ -18107,10 +17645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:32:53</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44280.48116898148</v>
       </c>
       <c r="I241" t="n">
         <v>4</v>
@@ -18178,10 +17714,8 @@
           <t>4313338392</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:32:49</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44280.48112268518</v>
       </c>
       <c r="I242" t="n">
         <v>66</v>
@@ -18253,10 +17787,8 @@
           <t>4313319567</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:32:32</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44280.48092592593</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18328,10 +17860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:32:30</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44280.48090277778</v>
       </c>
       <c r="I244" t="n">
         <v>9</v>
@@ -18407,10 +17937,8 @@
           <t>4313346018</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:32:03</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44280.48059027778</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18486,10 +18014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:31:39</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44280.4803125</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18565,10 +18091,8 @@
           <t>4313337115</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:31:38</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44280.48030092593</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18640,10 +18164,8 @@
           <t>4313341940</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:31:35</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44280.4802662037</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18711,10 +18233,8 @@
           <t>4313345072</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:31:13</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44280.48001157407</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18782,10 +18302,8 @@
           <t>4313336599</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:31:10</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44280.47997685185</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -18857,10 +18375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:31:01</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44280.47987268519</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18924,10 +18440,8 @@
           <t>4313341018</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:30:47</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44280.47971064815</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18999,10 +18513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:30:43</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44280.47966435185</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -19062,10 +18574,8 @@
           <t>4313334336</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:30:35</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44280.47957175926</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19133,10 +18643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:30:30</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44280.47951388889</v>
       </c>
       <c r="I255" t="n">
         <v>2</v>
@@ -19208,10 +18716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:30:12</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44280.47930555556</v>
       </c>
       <c r="I256" t="n">
         <v>3</v>
@@ -19275,10 +18781,8 @@
           <t>4313340106</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:29:55</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44280.47910879629</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19342,10 +18846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:29:30</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44280.47881944444</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
@@ -19409,10 +18911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:29:21</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44280.47871527778</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19484,10 +18984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:29:19</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44280.47869212963</v>
       </c>
       <c r="I260" t="n">
         <v>2</v>
@@ -19563,10 +19061,8 @@
           <t>4313329247</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:29:04</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44280.47851851852</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19630,10 +19126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:29:02</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44280.47849537037</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19701,10 +19195,8 @@
           <t>4313329000</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:28:51</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44280.47836805556</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19776,10 +19268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:28:43</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44280.47827546296</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19847,10 +19337,8 @@
           <t>4313328785</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:28:41</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44280.47825231482</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19926,10 +19414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:28:29</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44280.47811342592</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -20001,10 +19487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:28:11</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44280.47790509259</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20064,10 +19548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:28:11</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44280.47790509259</v>
       </c>
       <c r="I268" t="n">
         <v>2</v>
@@ -20135,10 +19617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:54</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44280.47770833333</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20214,10 +19694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:39</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44280.47753472222</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -20289,10 +19767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:36</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44280.4775</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20368,10 +19844,8 @@
           <t>4313327597</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:33</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44280.47746527778</v>
       </c>
       <c r="I272" t="n">
         <v>2</v>
@@ -20447,10 +19921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:27</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44280.47739583333</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20514,10 +19986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:22</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44280.47733796296</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20593,10 +20063,8 @@
           <t>4313322521</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:27:22</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44280.47733796296</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20660,10 +20128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:26:42</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44280.476875</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20727,10 +20193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:26:38</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44280.4768287037</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20798,10 +20262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:26:29</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44280.47672453704</v>
       </c>
       <c r="I278" t="n">
         <v>31</v>
@@ -20869,10 +20331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:26:22</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44280.47664351852</v>
       </c>
       <c r="I279" t="n">
         <v>4</v>
@@ -20944,10 +20404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:26:21</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44280.47663194445</v>
       </c>
       <c r="I280" t="n">
         <v>6</v>
@@ -21023,10 +20481,8 @@
           <t>4313319567</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:26:09</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44280.47649305555</v>
       </c>
       <c r="I281" t="n">
         <v>22</v>
@@ -21102,10 +20558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:26:02</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44280.47641203704</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -21181,10 +20635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:25:58</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44280.47636574074</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21256,10 +20708,8 @@
           <t>4313318069</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:25:47</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44280.47623842592</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21327,10 +20777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:25:36</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44280.47611111111</v>
       </c>
       <c r="I285" t="n">
         <v>36</v>
@@ -21406,10 +20854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:25:31</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44280.47605324074</v>
       </c>
       <c r="I286" t="n">
         <v>5</v>
@@ -21473,10 +20919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:25:26</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44280.47599537037</v>
       </c>
       <c r="I287" t="n">
         <v>22</v>
@@ -21552,10 +20996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:25:23</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44280.47596064815</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21627,10 +21069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:25:17</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44280.47589120371</v>
       </c>
       <c r="I289" t="n">
         <v>8</v>
@@ -21698,10 +21138,8 @@
           <t>4313318565</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:25:12</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44280.47583333333</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21769,10 +21207,8 @@
           <t>4313314864</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:58</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44280.4756712963</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21836,10 +21272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:55</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44280.47563657408</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21911,10 +21345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:50</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44280.47557870371</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21978,10 +21410,8 @@
           <t>4313309775</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:48</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44280.47555555555</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22049,10 +21479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:44</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44280.47550925926</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -22112,10 +21540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:44</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44280.47550925926</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22175,10 +21601,8 @@
           <t>4313318069</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:44</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44280.47550925926</v>
       </c>
       <c r="I297" t="n">
         <v>4</v>
@@ -22242,10 +21666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:41</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44280.47547453704</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22321,10 +21743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:23</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44280.47526620371</v>
       </c>
       <c r="I299" t="n">
         <v>305</v>
@@ -22392,10 +21812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:17</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44280.47519675926</v>
       </c>
       <c r="I300" t="n">
         <v>3</v>
@@ -22463,10 +21881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:16</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44280.47518518518</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22530,10 +21946,8 @@
           <t>4313317564</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:16</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44280.47518518518</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22605,10 +22019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:14</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44280.47516203704</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22684,10 +22096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:14</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44280.47516203704</v>
       </c>
       <c r="I304" t="n">
         <v>47</v>
@@ -22763,10 +22173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:14</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44280.47516203704</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22834,10 +22242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:04</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44280.4750462963</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22905,10 +22311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:24:01</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44280.47501157408</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -22985,10 +22389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:56</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44280.47495370371</v>
       </c>
       <c r="I308" t="n">
         <v>1</v>
@@ -23067,10 +22469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:52</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44280.47490740741</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23142,10 +22542,8 @@
           <t>4313313641</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:51</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44280.47489583334</v>
       </c>
       <c r="I310" t="n">
         <v>94</v>
@@ -23213,10 +22611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:50</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44280.47488425926</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23288,10 +22684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:44</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44280.47481481481</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23363,10 +22757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:42</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44280.47479166667</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23442,10 +22834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:41</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44280.47478009259</v>
       </c>
       <c r="I314" t="n">
         <v>1</v>
@@ -23509,10 +22899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:36</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44280.47472222222</v>
       </c>
       <c r="I315" t="n">
         <v>5</v>
@@ -23592,10 +22980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:31</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44280.47466435185</v>
       </c>
       <c r="I316" t="n">
         <v>803</v>
@@ -23667,10 +23053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:31</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44280.47466435185</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23738,10 +23122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:24</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44280.47458333334</v>
       </c>
       <c r="I318" t="n">
         <v>3</v>
@@ -23817,10 +23199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:23</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44280.47457175926</v>
       </c>
       <c r="I319" t="n">
         <v>5</v>
@@ -23892,10 +23272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:20</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44280.47453703704</v>
       </c>
       <c r="I320" t="n">
         <v>3</v>
@@ -23971,10 +23349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:19</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44280.47452546296</v>
       </c>
       <c r="I321" t="n">
         <v>2</v>
@@ -24046,10 +23422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:14</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44280.47446759259</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24109,10 +23483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:13</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44280.47445601852</v>
       </c>
       <c r="I323" t="n">
         <v>12</v>
@@ -24180,10 +23552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:13</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44280.47445601852</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24255,10 +23625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:12</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44280.47444444444</v>
       </c>
       <c r="I325" t="n">
         <v>11</v>
@@ -24326,10 +23694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:06</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44280.474375</v>
       </c>
       <c r="I326" t="n">
         <v>5</v>
@@ -24397,10 +23763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:05</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44280.47436342593</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24476,10 +23840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:05</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44280.47436342593</v>
       </c>
       <c r="I328" t="n">
         <v>5</v>
@@ -24547,10 +23909,8 @@
           <t>4313307830</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:23:02</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44280.47432870371</v>
       </c>
       <c r="I329" t="n">
         <v>18</v>
@@ -24614,10 +23974,8 @@
           <t>4313316179</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:58</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44280.47428240741</v>
       </c>
       <c r="I330" t="n">
         <v>2</v>
@@ -24689,10 +24047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:57</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44280.47427083334</v>
       </c>
       <c r="I331" t="n">
         <v>2</v>
@@ -24752,10 +24108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:56</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44280.47425925926</v>
       </c>
       <c r="I332" t="n">
         <v>1</v>
@@ -24823,10 +24177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:55</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44280.47424768518</v>
       </c>
       <c r="I333" t="n">
         <v>1</v>
@@ -24898,10 +24250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:54</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44280.47423611111</v>
       </c>
       <c r="I334" t="n">
         <v>2</v>
@@ -24965,10 +24315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:53</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44280.47422453704</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -25032,10 +24380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:52</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44280.47421296296</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25111,10 +24457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:50</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44280.47418981481</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -25182,10 +24526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:49</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44280.47417824074</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25263,10 +24605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:49</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44280.47417824074</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -25330,10 +24670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:47</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44280.47415509259</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25409,10 +24747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:46</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44280.47414351852</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25480,10 +24816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:40</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44280.47407407407</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25551,10 +24885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:40</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44280.47407407407</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25622,10 +24954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:39</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44280.4740625</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25689,10 +25019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:38</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44280.47405092593</v>
       </c>
       <c r="I345" t="n">
         <v>1</v>
@@ -25760,10 +25088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:36</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44280.47402777777</v>
       </c>
       <c r="I346" t="n">
         <v>7</v>
@@ -25840,10 +25166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:35</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44280.47401620371</v>
       </c>
       <c r="I347" t="n">
         <v>87</v>
@@ -25919,10 +25243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:35</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44280.47401620371</v>
       </c>
       <c r="I348" t="n">
         <v>2</v>
@@ -25986,10 +25308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:33</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44280.47399305556</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26061,10 +25381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:33</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44280.47399305556</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26140,10 +25458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:30</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44280.47395833334</v>
       </c>
       <c r="I351" t="n">
         <v>25</v>
@@ -26215,10 +25531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:29</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44280.47394675926</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -26290,10 +25604,8 @@
           <t>4313307191</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:27</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44280.47392361111</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26369,10 +25681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:26</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44280.47391203704</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26444,10 +25754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:26</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44280.47391203704</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26515,10 +25823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:25</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44280.47390046297</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26582,10 +25888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:24</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44280.47388888889</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26657,10 +25961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:23</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44280.47387731481</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26736,10 +26038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:23</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44280.47387731481</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26811,10 +26111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:22</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44280.47386574074</v>
       </c>
       <c r="I360" t="n">
         <v>1</v>
@@ -26890,10 +26188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:21</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44280.47385416667</v>
       </c>
       <c r="I361" t="n">
         <v>1466</v>
@@ -26961,10 +26257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:19</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44280.47383101852</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -27040,10 +26334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:17</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44280.47380787037</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27115,10 +26407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:15</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44280.47378472222</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27194,10 +26484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:12</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44280.47375</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27273,10 +26561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:22:03</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44280.47364583334</v>
       </c>
       <c r="I366" t="n">
         <v>10</v>
